--- a/biology/Biologie cellulaire et moléculaire/Transition_(génétique)/Transition_(génétique).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Transition_(génétique)/Transition_(génétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transition_(g%C3%A9n%C3%A9tique)</t>
+          <t>Transition_(génétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biologie moléculaire, une transition est une mutation ponctuelle de l'ADN qui correspond au remplacement soit d'une purine (A ou G) par l'autre purine, soit d'une pyrimidine (T ou C) par l'autre pyrimidine[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biologie moléculaire, une transition est une mutation ponctuelle de l'ADN qui correspond au remplacement soit d'une purine (A ou G) par l'autre purine, soit d'une pyrimidine (T ou C) par l'autre pyrimidine. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transition_(g%C3%A9n%C3%A9tique)</t>
+          <t>Transition_(génétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Effet de la mutation génétique sur une protéine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les régions d'ADN codant pour une protéine, et du fait de la redondance du Code génétique lui-même, une transition portant sur la troisième position de nombreux codons de l'ADN n'entrainera pas de substitution de l'acide aminé.
 De telles mutations sont donc plus susceptibles de persister en tant que «substitutions silencieuses» dans les populations en tant que polymorphisme nucléotidique (SNP) portant sur un seul nucléotide.
